--- a/items.xlsx
+++ b/items.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaProjects\Selenium_Java_Skeleton\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Workspace\selenium_java_skeleton1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B286704-F50D-472D-B784-FDC348A6D1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2983E423-FAB8-4D55-B39C-5429BA923C7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="795" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>WD Red 4TB</t>
+    <t>Western Digital WD Red</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,7 +382,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
